--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/应交所得税.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/应交所得税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10.20865</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.04771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.44938</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1.07835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>30.81274</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12.29246</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.53596</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.4655</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.23632</v>
-      </c>
-      <c r="L2" t="n">
-        <v>540.05764</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.38745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.57942</v>
-      </c>
-      <c r="O2" t="n">
-        <v>12.60967</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.2588</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.44316</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.70067</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.63158</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.71811</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.17056</v>
-      </c>
-      <c r="V2" t="n">
-        <v>34.36399</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.73933</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.02262</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>65.55349</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>30.69193</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19.73053</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.43816</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.82802</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>84.58889000000001</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16.20793</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.10166</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7.65489</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5.15411</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11.67528</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.8239</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>5.60306</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>7.3024</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>24.04755</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>51.27769</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.25971</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11.22946</v>
-      </c>
-      <c r="C3" t="n">
-        <v>41.64379</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.47761</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>2.50103</v>
-      </c>
-      <c r="G3" t="n">
-        <v>35.27724</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.90093</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23.92369</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.67836</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.55862</v>
-      </c>
-      <c r="L3" t="n">
-        <v>632.15171</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.60431</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.85869</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.9842</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13.06558</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.16978</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.00264</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.24009</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.39358</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3.39302</v>
-      </c>
-      <c r="V3" t="n">
-        <v>51.09109</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.79494</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.63038</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>66.35199</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>37.06211</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>25.0285</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.28671</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.48668</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>86.05954</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17.75553</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.58168</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.44336</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.39752</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15.7086</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.01199</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>7.78271</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>11.35057</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21.19276</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>57.38222</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.47642</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.96937</v>
-      </c>
-      <c r="C4" t="n">
-        <v>59.70926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.88796</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1.79448</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38.22705</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.96644</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27.95138</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.69936</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.27332</v>
-      </c>
-      <c r="L4" t="n">
-        <v>758.18588</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.75666</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.25879</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19.96227</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11.34765</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.46399</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7.09409</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.20318</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.68697</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.15813</v>
-      </c>
-      <c r="V4" t="n">
-        <v>61.35022</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.23397</v>
-      </c>
-      <c r="X4" t="n">
-        <v>26.01288</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>76.98641000000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>43.59621</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26.57062</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.64971</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15.93946</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>92.23147</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>20.20243</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.23355</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.87399</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.7459</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>16.10003</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.27095</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>11.79746</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12.49694</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>25.26241</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>81.53991000000001</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.34615</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
